--- a/sources/Turkish_data.xlsx
+++ b/sources/Turkish_data.xlsx
@@ -1992,12 +1992,6 @@
     <t>git-</t>
   </si>
   <si>
-    <t>GEN+peşinden</t>
-  </si>
-  <si>
-    <t>NOMGEN+peşinden</t>
-  </si>
-  <si>
     <t>in-</t>
   </si>
   <si>
@@ -2142,12 +2136,6 @@
     <t>üzül-</t>
   </si>
   <si>
-    <t>GEN+üzünden</t>
-  </si>
-  <si>
-    <t>NOMGEN+üzünden</t>
-  </si>
-  <si>
     <t>послелог со значением из-за</t>
   </si>
   <si>
@@ -2164,6 +2152,18 @@
   </si>
   <si>
     <t>Turkish</t>
+  </si>
+  <si>
+    <t>GENpesinden</t>
+  </si>
+  <si>
+    <t>GENuzunden</t>
+  </si>
+  <si>
+    <t>NOMGENpesinden</t>
+  </si>
+  <si>
+    <t>NOMGENuzunden</t>
   </si>
 </sst>
 </file>
@@ -2233,7 +2233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90" wrapText="1"/>
@@ -2257,7 +2257,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2541,7 +2540,7 @@
   <dimension ref="A1:S131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2631,7 +2630,7 @@
         <v>50</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -2676,7 +2675,7 @@
         <v>50</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -2721,7 +2720,7 @@
         <v>50</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
@@ -2766,7 +2765,7 @@
         <v>50</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C5" s="4">
         <v>4</v>
@@ -2809,7 +2808,7 @@
         <v>50</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -2847,14 +2846,14 @@
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
+      <c r="S6" s="5"/>
     </row>
     <row r="7" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>50</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
@@ -2892,14 +2891,14 @@
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="9"/>
+      <c r="S7" s="5"/>
     </row>
     <row r="8" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>50</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C8" s="4">
         <v>7</v>
@@ -2944,7 +2943,7 @@
         <v>50</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C9" s="4">
         <v>8</v>
@@ -2987,7 +2986,7 @@
         <v>50</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C10" s="4">
         <v>9</v>
@@ -3030,7 +3029,7 @@
         <v>50</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C11" s="4">
         <v>10</v>
@@ -3073,7 +3072,7 @@
         <v>50</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C12" s="4">
         <v>11</v>
@@ -3118,7 +3117,7 @@
         <v>50</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C13" s="4">
         <v>12</v>
@@ -3163,7 +3162,7 @@
         <v>50</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C14" s="4">
         <v>13</v>
@@ -3199,14 +3198,14 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="9"/>
+      <c r="S14" s="5"/>
     </row>
     <row r="15" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>50</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C15" s="4">
         <v>14</v>
@@ -3244,14 +3243,14 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="9"/>
+      <c r="S15" s="5"/>
     </row>
     <row r="16" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>50</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C16" s="4">
         <v>15</v>
@@ -3287,14 +3286,14 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
+      <c r="S16" s="5"/>
     </row>
     <row r="17" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C17" s="4">
         <v>16</v>
@@ -3337,7 +3336,7 @@
         <v>50</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C18" s="4">
         <v>17</v>
@@ -3369,22 +3368,22 @@
       <c r="L18" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M18" s="5" t="s">
-        <v>561</v>
-      </c>
+      <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
-      <c r="S18" s="5"/>
+      <c r="S18" s="5" t="s">
+        <v>561</v>
+      </c>
     </row>
     <row r="19" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>50</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C19" s="4">
         <v>18</v>
@@ -3427,7 +3426,7 @@
         <v>50</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C20" s="4">
         <v>19</v>
@@ -3465,14 +3464,14 @@
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="9"/>
+      <c r="S20" s="5"/>
     </row>
     <row r="21" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>50</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C21" s="4">
         <v>20</v>
@@ -3515,7 +3514,7 @@
         <v>50</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C22" s="4">
         <v>21</v>
@@ -3547,22 +3546,22 @@
       <c r="L22" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M22" s="5" t="s">
-        <v>566</v>
-      </c>
+      <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="9"/>
+      <c r="S22" s="5" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="23" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>50</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C23" s="4">
         <v>22</v>
@@ -3607,7 +3606,7 @@
         <v>50</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C24" s="4">
         <v>23</v>
@@ -3639,22 +3638,22 @@
       <c r="L24" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="M24" s="5" t="s">
-        <v>571</v>
-      </c>
+      <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
-      <c r="S24" s="9"/>
+      <c r="S24" s="5" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="25" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>50</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C25" s="4">
         <v>24</v>
@@ -3686,22 +3685,22 @@
       <c r="L25" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="M25" s="5" t="s">
-        <v>573</v>
-      </c>
+      <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
-      <c r="S25" s="5"/>
+      <c r="S25" s="5" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="26" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>50</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C26" s="4">
         <v>25</v>
@@ -3744,7 +3743,7 @@
         <v>50</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C27" s="4">
         <v>26</v>
@@ -3787,7 +3786,7 @@
         <v>50</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C28" s="4">
         <v>27</v>
@@ -3817,22 +3816,22 @@
       <c r="L28" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="M28" s="5" t="s">
-        <v>577</v>
-      </c>
+      <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
-      <c r="S28" s="5"/>
+      <c r="S28" s="5" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="29" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>50</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C29" s="4">
         <v>28</v>
@@ -3875,7 +3874,7 @@
         <v>50</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C30" s="4">
         <v>29</v>
@@ -3911,14 +3910,14 @@
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
-      <c r="S30" s="9"/>
+      <c r="S30" s="5"/>
     </row>
     <row r="31" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>50</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C31" s="4">
         <v>30</v>
@@ -3950,22 +3949,22 @@
       <c r="L31" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M31" s="5" t="s">
-        <v>581</v>
-      </c>
+      <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
-      <c r="S31" s="5"/>
+      <c r="S31" s="5" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="32" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>50</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C32" s="4">
         <v>31</v>
@@ -4008,7 +4007,7 @@
         <v>50</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C33" s="4">
         <v>32</v>
@@ -4040,22 +4039,22 @@
       <c r="L33" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="M33" s="5" t="s">
-        <v>571</v>
-      </c>
+      <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
-      <c r="S33" s="5"/>
+      <c r="S33" s="5" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="34" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>50</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C34" s="4">
         <v>33</v>
@@ -4098,7 +4097,7 @@
         <v>50</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C35" s="4">
         <v>34</v>
@@ -4141,7 +4140,7 @@
         <v>50</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C36" s="4">
         <v>35</v>
@@ -4186,7 +4185,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C37" s="4">
         <v>36</v>
@@ -4229,7 +4228,7 @@
         <v>50</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C38" s="4">
         <v>37</v>
@@ -4261,22 +4260,22 @@
       <c r="L38" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="M38" s="5" t="s">
-        <v>589</v>
-      </c>
+      <c r="M38" s="5"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
-      <c r="S38" s="5"/>
+      <c r="S38" s="5" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="39" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>50</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C39" s="4">
         <v>38</v>
@@ -4321,7 +4320,7 @@
         <v>50</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C40" s="4">
         <v>39</v>
@@ -4364,7 +4363,7 @@
         <v>50</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C41" s="4">
         <v>40</v>
@@ -4407,7 +4406,7 @@
         <v>50</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C42" s="4">
         <v>41</v>
@@ -4450,7 +4449,7 @@
         <v>50</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C43" s="4">
         <v>42</v>
@@ -4480,22 +4479,22 @@
       <c r="L43" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="M43" s="5" t="s">
-        <v>594</v>
-      </c>
+      <c r="M43" s="5"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
-      <c r="S43" s="5"/>
+      <c r="S43" s="5" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="44" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>50</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C44" s="4">
         <v>43</v>
@@ -4538,7 +4537,7 @@
         <v>50</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C45" s="4">
         <v>44</v>
@@ -4581,7 +4580,7 @@
         <v>50</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C46" s="4">
         <v>45</v>
@@ -4611,22 +4610,22 @@
       <c r="L46" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="M46" s="5" t="s">
-        <v>598</v>
-      </c>
+      <c r="M46" s="5"/>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
-      <c r="S46" s="5"/>
+      <c r="S46" s="5" t="s">
+        <v>598</v>
+      </c>
     </row>
     <row r="47" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>50</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C47" s="4">
         <v>46</v>
@@ -4669,7 +4668,7 @@
         <v>50</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C48" s="4">
         <v>47</v>
@@ -4712,7 +4711,7 @@
         <v>50</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C49" s="4">
         <v>48</v>
@@ -4740,22 +4739,22 @@
         <v>601</v>
       </c>
       <c r="L49" s="5"/>
-      <c r="M49" s="5" t="s">
-        <v>602</v>
-      </c>
+      <c r="M49" s="5"/>
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
-      <c r="S49" s="5"/>
+      <c r="S49" s="5" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="50" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>50</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C50" s="4">
         <v>49</v>
@@ -4798,7 +4797,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C51" s="4">
         <v>50</v>
@@ -4841,7 +4840,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C52" s="4">
         <v>51</v>
@@ -4869,22 +4868,22 @@
         <v>601</v>
       </c>
       <c r="L52" s="5"/>
-      <c r="M52" s="5" t="s">
-        <v>605</v>
-      </c>
+      <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
-      <c r="S52" s="5"/>
+      <c r="S52" s="5" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="53" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>50</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C53" s="4">
         <v>52</v>
@@ -4927,7 +4926,7 @@
         <v>50</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C54" s="4">
         <v>53</v>
@@ -4972,7 +4971,7 @@
         <v>50</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C55" s="4">
         <v>54</v>
@@ -5017,7 +5016,7 @@
         <v>50</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C56" s="4">
         <v>55</v>
@@ -5060,7 +5059,7 @@
         <v>50</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C57" s="4">
         <v>56</v>
@@ -5092,22 +5091,22 @@
       <c r="L57" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="M57" s="5" t="s">
-        <v>611</v>
-      </c>
+      <c r="M57" s="5"/>
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
-      <c r="S57" s="5"/>
+      <c r="S57" s="5" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="58" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>50</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C58" s="4">
         <v>57</v>
@@ -5139,22 +5138,22 @@
       <c r="L58" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M58" s="5" t="s">
-        <v>613</v>
-      </c>
+      <c r="M58" s="5"/>
       <c r="N58" s="5"/>
       <c r="O58" s="5"/>
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
       <c r="R58" s="7"/>
-      <c r="S58" s="5"/>
+      <c r="S58" s="5" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="59" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>50</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C59" s="4">
         <v>58</v>
@@ -5184,22 +5183,22 @@
       <c r="L59" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="M59" s="5" t="s">
-        <v>615</v>
-      </c>
+      <c r="M59" s="5"/>
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="7"/>
-      <c r="S59" s="5"/>
+      <c r="S59" s="5" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="60" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>50</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C60" s="4">
         <v>59</v>
@@ -5231,22 +5230,22 @@
       <c r="L60" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="M60" s="5" t="s">
-        <v>619</v>
-      </c>
+      <c r="M60" s="5"/>
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
-      <c r="S60" s="5"/>
+      <c r="S60" s="5" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="61" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>50</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C61" s="4">
         <v>60</v>
@@ -5289,7 +5288,7 @@
         <v>50</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C62" s="6">
         <v>61</v>
@@ -5334,7 +5333,7 @@
         <v>50</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C63" s="4">
         <v>62</v>
@@ -5366,22 +5365,22 @@
       <c r="L63" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M63" s="5" t="s">
-        <v>623</v>
-      </c>
+      <c r="M63" s="5"/>
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
       <c r="R63" s="7"/>
-      <c r="S63" s="5"/>
+      <c r="S63" s="5" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="64" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>50</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C64" s="4">
         <v>63</v>
@@ -5424,7 +5423,7 @@
         <v>50</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C65" s="4">
         <v>64</v>
@@ -5456,22 +5455,22 @@
       <c r="L65" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M65" s="5" t="s">
-        <v>626</v>
-      </c>
+      <c r="M65" s="5"/>
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
-      <c r="S65" s="5"/>
+      <c r="S65" s="5" t="s">
+        <v>626</v>
+      </c>
     </row>
     <row r="66" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>50</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C66" s="4">
         <v>65</v>
@@ -5503,22 +5502,22 @@
       <c r="L66" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M66" s="5" t="s">
-        <v>628</v>
-      </c>
+      <c r="M66" s="5"/>
       <c r="N66" s="5"/>
       <c r="O66" s="5"/>
       <c r="P66" s="7"/>
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
-      <c r="S66" s="5"/>
+      <c r="S66" s="5" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="67" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>50</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C67" s="4">
         <v>66</v>
@@ -5561,7 +5560,7 @@
         <v>50</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C68" s="4">
         <v>67</v>
@@ -5593,22 +5592,22 @@
       <c r="L68" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M68" s="5" t="s">
-        <v>631</v>
-      </c>
+      <c r="M68" s="5"/>
       <c r="N68" s="5"/>
       <c r="O68" s="5"/>
       <c r="P68" s="7"/>
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
-      <c r="S68" s="5"/>
+      <c r="S68" s="5" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="69" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>50</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C69" s="4">
         <v>68</v>
@@ -5636,22 +5635,22 @@
         <v>601</v>
       </c>
       <c r="L69" s="5"/>
-      <c r="M69" s="5" t="s">
-        <v>633</v>
-      </c>
+      <c r="M69" s="5"/>
       <c r="N69" s="5"/>
       <c r="O69" s="5"/>
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
       <c r="R69" s="7"/>
-      <c r="S69" s="5"/>
+      <c r="S69" s="5" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="70" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>50</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C70" s="4">
         <v>69</v>
@@ -5694,7 +5693,7 @@
         <v>50</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C71" s="4">
         <v>70</v>
@@ -5737,7 +5736,7 @@
         <v>50</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C72" s="4">
         <v>71</v>
@@ -5780,7 +5779,7 @@
         <v>50</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C73" s="4">
         <v>72</v>
@@ -5823,7 +5822,7 @@
         <v>50</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C74" s="4">
         <v>73</v>
@@ -5868,7 +5867,7 @@
         <v>50</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C75" s="4">
         <v>74</v>
@@ -5913,7 +5912,7 @@
         <v>50</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C76" s="4">
         <v>75</v>
@@ -5956,7 +5955,7 @@
         <v>50</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C77" s="4">
         <v>76</v>
@@ -5999,7 +5998,7 @@
         <v>50</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C78" s="4">
         <v>77</v>
@@ -6031,22 +6030,22 @@
       <c r="L78" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M78" s="5" t="s">
-        <v>643</v>
-      </c>
+      <c r="M78" s="5"/>
       <c r="N78" s="5"/>
       <c r="O78" s="5"/>
       <c r="P78" s="7"/>
       <c r="Q78" s="7"/>
       <c r="R78" s="7"/>
-      <c r="S78" s="5"/>
+      <c r="S78" s="5" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="79" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>50</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C79" s="4">
         <v>78</v>
@@ -6089,7 +6088,7 @@
         <v>50</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C80" s="4">
         <v>79</v>
@@ -6134,7 +6133,7 @@
         <v>50</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C81" s="4">
         <v>80</v>
@@ -6162,22 +6161,22 @@
         <v>601</v>
       </c>
       <c r="L81" s="5"/>
-      <c r="M81" s="5" t="s">
-        <v>646</v>
-      </c>
+      <c r="M81" s="5"/>
       <c r="N81" s="5"/>
       <c r="O81" s="5"/>
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
       <c r="R81" s="7"/>
-      <c r="S81" s="5"/>
+      <c r="S81" s="5" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="82" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>50</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C82" s="4">
         <v>81</v>
@@ -6222,7 +6221,7 @@
         <v>50</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C83" s="4">
         <v>82</v>
@@ -6267,7 +6266,7 @@
         <v>50</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C84" s="4">
         <v>83</v>
@@ -6299,22 +6298,22 @@
       <c r="L84" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M84" s="5" t="s">
-        <v>649</v>
-      </c>
+      <c r="M84" s="5"/>
       <c r="N84" s="5"/>
       <c r="O84" s="5"/>
       <c r="P84" s="7"/>
       <c r="Q84" s="7"/>
       <c r="R84" s="7"/>
-      <c r="S84" s="5"/>
+      <c r="S84" s="5" t="s">
+        <v>649</v>
+      </c>
     </row>
     <row r="85" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>50</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C85" s="4">
         <v>84</v>
@@ -6346,22 +6345,22 @@
       <c r="L85" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="M85" s="5" t="s">
-        <v>571</v>
-      </c>
+      <c r="M85" s="5"/>
       <c r="N85" s="5"/>
       <c r="O85" s="5"/>
       <c r="P85" s="7"/>
       <c r="Q85" s="7"/>
       <c r="R85" s="7"/>
-      <c r="S85" s="5"/>
+      <c r="S85" s="5" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="86" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>50</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C86" s="4">
         <v>85</v>
@@ -6404,7 +6403,7 @@
         <v>50</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C87" s="4">
         <v>86</v>
@@ -6447,7 +6446,7 @@
         <v>50</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C88" s="4">
         <v>87</v>
@@ -6490,7 +6489,7 @@
         <v>50</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C89" s="4">
         <v>88</v>
@@ -6533,7 +6532,7 @@
         <v>50</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C90" s="4">
         <v>89</v>
@@ -6557,13 +6556,13 @@
         <v>537</v>
       </c>
       <c r="J90" s="5" t="s">
-        <v>656</v>
+        <v>710</v>
       </c>
       <c r="K90" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>657</v>
+        <v>712</v>
       </c>
       <c r="M90" s="5"/>
       <c r="N90" s="5"/>
@@ -6578,7 +6577,7 @@
         <v>50</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C91" s="4">
         <v>90</v>
@@ -6596,7 +6595,7 @@
         <v>377</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="I91" s="5" t="s">
         <v>537</v>
@@ -6623,7 +6622,7 @@
         <v>50</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C92" s="4">
         <v>91</v>
@@ -6641,7 +6640,7 @@
         <v>381</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="I92" s="5" t="s">
         <v>544</v>
@@ -6666,7 +6665,7 @@
         <v>50</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C93" s="4">
         <v>92</v>
@@ -6694,22 +6693,22 @@
         <v>601</v>
       </c>
       <c r="L93" s="5"/>
-      <c r="M93" s="5" t="s">
-        <v>660</v>
-      </c>
+      <c r="M93" s="5"/>
       <c r="N93" s="5"/>
       <c r="O93" s="5"/>
       <c r="P93" s="7"/>
       <c r="Q93" s="7"/>
       <c r="R93" s="7"/>
-      <c r="S93" s="5"/>
+      <c r="S93" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="94" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>50</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C94" s="4">
         <v>93</v>
@@ -6727,7 +6726,7 @@
         <v>389</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="I94" s="5" t="s">
         <v>544</v>
@@ -6752,7 +6751,7 @@
         <v>50</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C95" s="4">
         <v>94</v>
@@ -6770,7 +6769,7 @@
         <v>393</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="I95" s="5" t="s">
         <v>537</v>
@@ -6784,22 +6783,22 @@
       <c r="L95" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="M95" s="5" t="s">
-        <v>663</v>
-      </c>
+      <c r="M95" s="5"/>
       <c r="N95" s="5"/>
       <c r="O95" s="5"/>
       <c r="P95" s="7"/>
       <c r="Q95" s="7"/>
       <c r="R95" s="7"/>
-      <c r="S95" s="5"/>
+      <c r="S95" s="5" t="s">
+        <v>661</v>
+      </c>
     </row>
     <row r="96" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>50</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C96" s="4">
         <v>95</v>
@@ -6817,7 +6816,7 @@
         <v>397</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="I96" s="5" t="s">
         <v>537</v>
@@ -6844,7 +6843,7 @@
         <v>50</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C97" s="4">
         <v>96</v>
@@ -6862,7 +6861,7 @@
         <v>401</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="I97" s="5" t="s">
         <v>544</v>
@@ -6887,7 +6886,7 @@
         <v>50</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C98" s="4">
         <v>97</v>
@@ -6905,7 +6904,7 @@
         <v>405</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="I98" s="5" t="s">
         <v>544</v>
@@ -6917,22 +6916,22 @@
       <c r="L98" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="M98" s="5" t="s">
-        <v>667</v>
-      </c>
+      <c r="M98" s="5"/>
       <c r="N98" s="5"/>
       <c r="O98" s="5"/>
       <c r="P98" s="7"/>
       <c r="Q98" s="7"/>
       <c r="R98" s="7"/>
-      <c r="S98" s="5"/>
+      <c r="S98" s="5" t="s">
+        <v>665</v>
+      </c>
     </row>
     <row r="99" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>50</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C99" s="4">
         <v>98</v>
@@ -6950,7 +6949,7 @@
         <v>409</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="I99" s="5" t="s">
         <v>537</v>
@@ -6964,22 +6963,22 @@
       <c r="L99" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M99" s="5" t="s">
-        <v>669</v>
-      </c>
+      <c r="M99" s="5"/>
       <c r="N99" s="5"/>
       <c r="O99" s="5"/>
       <c r="P99" s="7"/>
       <c r="Q99" s="7"/>
       <c r="R99" s="7"/>
-      <c r="S99" s="5"/>
+      <c r="S99" s="5" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="100" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>50</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C100" s="4">
         <v>99</v>
@@ -6997,7 +6996,7 @@
         <v>413</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="I100" s="5" t="s">
         <v>537</v>
@@ -7011,22 +7010,22 @@
       <c r="L100" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="M100" s="5" t="s">
-        <v>671</v>
-      </c>
+      <c r="M100" s="5"/>
       <c r="N100" s="5"/>
       <c r="O100" s="5"/>
       <c r="P100" s="7"/>
       <c r="Q100" s="7"/>
       <c r="R100" s="7"/>
-      <c r="S100" s="5"/>
+      <c r="S100" s="5" t="s">
+        <v>669</v>
+      </c>
     </row>
     <row r="101" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>50</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C101" s="4">
         <v>100</v>
@@ -7044,7 +7043,7 @@
         <v>417</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="I101" s="5" t="s">
         <v>544</v>
@@ -7056,22 +7055,22 @@
       <c r="L101" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="M101" s="5" t="s">
-        <v>673</v>
-      </c>
+      <c r="M101" s="5"/>
       <c r="N101" s="5"/>
       <c r="O101" s="5"/>
       <c r="P101" s="7"/>
       <c r="Q101" s="7"/>
       <c r="R101" s="7"/>
-      <c r="S101" s="5"/>
+      <c r="S101" s="5" t="s">
+        <v>671</v>
+      </c>
     </row>
     <row r="102" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>50</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C102" s="4">
         <v>101</v>
@@ -7089,7 +7088,7 @@
         <v>421</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="I102" s="5" t="s">
         <v>537</v>
@@ -7103,22 +7102,22 @@
       <c r="L102" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M102" s="5" t="s">
-        <v>675</v>
-      </c>
+      <c r="M102" s="5"/>
       <c r="N102" s="5"/>
       <c r="O102" s="5"/>
       <c r="P102" s="7"/>
       <c r="Q102" s="7"/>
       <c r="R102" s="7"/>
-      <c r="S102" s="5"/>
+      <c r="S102" s="5" t="s">
+        <v>673</v>
+      </c>
     </row>
     <row r="103" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>50</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C103" s="4">
         <v>102</v>
@@ -7136,7 +7135,7 @@
         <v>425</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="I103" s="5" t="s">
         <v>544</v>
@@ -7161,7 +7160,7 @@
         <v>50</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C104" s="4">
         <v>103</v>
@@ -7204,7 +7203,7 @@
         <v>50</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C105" s="4">
         <v>104</v>
@@ -7222,19 +7221,19 @@
         <v>432</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="I105" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="K105" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L105" s="5" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="M105" s="5"/>
       <c r="N105" s="5"/>
@@ -7249,7 +7248,7 @@
         <v>50</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C106" s="4">
         <v>105</v>
@@ -7267,7 +7266,7 @@
         <v>436</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="I106" s="5" t="s">
         <v>544</v>
@@ -7279,22 +7278,22 @@
       <c r="L106" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="M106" s="5" t="s">
-        <v>577</v>
-      </c>
+      <c r="M106" s="5"/>
       <c r="N106" s="5"/>
       <c r="O106" s="5"/>
       <c r="P106" s="7"/>
       <c r="Q106" s="7"/>
       <c r="R106" s="7"/>
-      <c r="S106" s="5"/>
+      <c r="S106" s="5" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="107" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>50</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C107" s="4">
         <v>106</v>
@@ -7312,7 +7311,7 @@
         <v>439</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="I107" s="5" t="s">
         <v>537</v>
@@ -7339,7 +7338,7 @@
         <v>50</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C108" s="4">
         <v>107</v>
@@ -7357,7 +7356,7 @@
         <v>443</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="I108" s="5" t="s">
         <v>544</v>
@@ -7382,7 +7381,7 @@
         <v>50</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C109" s="4">
         <v>108</v>
@@ -7400,7 +7399,7 @@
         <v>447</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="I109" s="5" t="s">
         <v>544</v>
@@ -7425,7 +7424,7 @@
         <v>50</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C110" s="4">
         <v>109</v>
@@ -7443,7 +7442,7 @@
         <v>451</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I110" s="5" t="s">
         <v>544</v>
@@ -7461,14 +7460,14 @@
       <c r="P110" s="7"/>
       <c r="Q110" s="7"/>
       <c r="R110" s="7"/>
-      <c r="S110" s="7"/>
+      <c r="S110" s="5"/>
     </row>
     <row r="111" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>50</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C111" s="4">
         <v>110</v>
@@ -7486,7 +7485,7 @@
         <v>455</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="I111" s="5" t="s">
         <v>537</v>
@@ -7500,22 +7499,22 @@
       <c r="L111" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M111" s="5" t="s">
-        <v>686</v>
-      </c>
+      <c r="M111" s="5"/>
       <c r="N111" s="5"/>
       <c r="O111" s="5"/>
       <c r="P111" s="7"/>
       <c r="Q111" s="7"/>
       <c r="R111" s="7"/>
-      <c r="S111" s="7"/>
+      <c r="S111" s="5" t="s">
+        <v>684</v>
+      </c>
     </row>
     <row r="112" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>50</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C112" s="4">
         <v>111</v>
@@ -7533,7 +7532,7 @@
         <v>459</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="I112" s="5" t="s">
         <v>537</v>
@@ -7553,14 +7552,14 @@
       <c r="P112" s="7"/>
       <c r="Q112" s="7"/>
       <c r="R112" s="7"/>
-      <c r="S112" s="7"/>
+      <c r="S112" s="5"/>
     </row>
     <row r="113" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>50</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C113" s="4">
         <v>112</v>
@@ -7578,7 +7577,7 @@
         <v>463</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I113" s="5" t="s">
         <v>537</v>
@@ -7592,22 +7591,22 @@
       <c r="L113" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M113" s="5" t="s">
-        <v>581</v>
-      </c>
+      <c r="M113" s="5"/>
       <c r="N113" s="5"/>
       <c r="O113" s="5"/>
       <c r="P113" s="7"/>
       <c r="Q113" s="7"/>
       <c r="R113" s="7"/>
-      <c r="S113" s="7"/>
+      <c r="S113" s="5" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="114" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>50</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C114" s="4">
         <v>113</v>
@@ -7625,7 +7624,7 @@
         <v>467</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="I114" s="5" t="s">
         <v>537</v>
@@ -7639,22 +7638,22 @@
       <c r="L114" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M114" s="5" t="s">
-        <v>690</v>
-      </c>
+      <c r="M114" s="5"/>
       <c r="N114" s="5"/>
       <c r="O114" s="5"/>
       <c r="P114" s="7"/>
       <c r="Q114" s="7"/>
       <c r="R114" s="7"/>
-      <c r="S114" s="7"/>
+      <c r="S114" s="5" t="s">
+        <v>688</v>
+      </c>
     </row>
     <row r="115" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>50</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C115" s="4">
         <v>114</v>
@@ -7672,7 +7671,7 @@
         <v>471</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="I115" s="5" t="s">
         <v>537</v>
@@ -7692,14 +7691,14 @@
       <c r="P115" s="7"/>
       <c r="Q115" s="7"/>
       <c r="R115" s="7"/>
-      <c r="S115" s="7"/>
+      <c r="S115" s="5"/>
     </row>
     <row r="116" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>50</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C116" s="4">
         <v>115</v>
@@ -7717,7 +7716,7 @@
         <v>475</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="I116" s="5" t="s">
         <v>537</v>
@@ -7737,14 +7736,14 @@
       <c r="P116" s="7"/>
       <c r="Q116" s="7"/>
       <c r="R116" s="7"/>
-      <c r="S116" s="7"/>
+      <c r="S116" s="5"/>
     </row>
     <row r="117" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>50</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C117" s="4">
         <v>116</v>
@@ -7762,7 +7761,7 @@
         <v>479</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="I117" s="5" t="s">
         <v>544</v>
@@ -7780,14 +7779,14 @@
       <c r="P117" s="7"/>
       <c r="Q117" s="7"/>
       <c r="R117" s="7"/>
-      <c r="S117" s="7"/>
+      <c r="S117" s="5"/>
     </row>
     <row r="118" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>50</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C118" s="4">
         <v>117</v>
@@ -7805,7 +7804,7 @@
         <v>483</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="I118" s="5" t="s">
         <v>537</v>
@@ -7819,22 +7818,22 @@
       <c r="L118" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M118" s="5" t="s">
-        <v>695</v>
-      </c>
+      <c r="M118" s="5"/>
       <c r="N118" s="5"/>
       <c r="O118" s="5"/>
       <c r="P118" s="7"/>
       <c r="Q118" s="7"/>
       <c r="R118" s="7"/>
-      <c r="S118" s="7"/>
+      <c r="S118" s="5" t="s">
+        <v>693</v>
+      </c>
     </row>
     <row r="119" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>50</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C119" s="4">
         <v>118</v>
@@ -7866,22 +7865,22 @@
       <c r="L119" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M119" s="5" t="s">
-        <v>696</v>
-      </c>
+      <c r="M119" s="5"/>
       <c r="N119" s="5"/>
       <c r="O119" s="5"/>
       <c r="P119" s="7"/>
       <c r="Q119" s="7"/>
       <c r="R119" s="7"/>
-      <c r="S119" s="5"/>
+      <c r="S119" s="5" t="s">
+        <v>694</v>
+      </c>
     </row>
     <row r="120" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>50</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C120" s="4">
         <v>119</v>
@@ -7924,7 +7923,7 @@
         <v>50</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C121" s="4">
         <v>120</v>
@@ -7965,7 +7964,7 @@
         <v>50</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C122" s="4">
         <v>121</v>
@@ -7983,7 +7982,7 @@
         <v>498</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="I122" s="5" t="s">
         <v>544</v>
@@ -8008,7 +8007,7 @@
         <v>50</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C123" s="4">
         <v>122</v>
@@ -8026,7 +8025,7 @@
         <v>502</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="I123" s="5" t="s">
         <v>537</v>
@@ -8040,22 +8039,22 @@
       <c r="L123" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M123" s="5" t="s">
-        <v>698</v>
-      </c>
+      <c r="M123" s="5"/>
       <c r="N123" s="5"/>
       <c r="O123" s="5"/>
       <c r="P123" s="7"/>
       <c r="Q123" s="7"/>
       <c r="R123" s="7"/>
-      <c r="S123" s="5"/>
+      <c r="S123" s="5" t="s">
+        <v>696</v>
+      </c>
     </row>
     <row r="124" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>50</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C124" s="4">
         <v>123</v>
@@ -8073,7 +8072,7 @@
         <v>506</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="I124" s="5" t="s">
         <v>537</v>
@@ -8100,7 +8099,7 @@
         <v>50</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C125" s="4">
         <v>124</v>
@@ -8118,7 +8117,7 @@
         <v>510</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="I125" s="5" t="s">
         <v>544</v>
@@ -8143,7 +8142,7 @@
         <v>50</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C126" s="4">
         <v>125</v>
@@ -8161,7 +8160,7 @@
         <v>514</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="I126" s="5" t="s">
         <v>537</v>
@@ -8175,22 +8174,22 @@
       <c r="L126" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M126" s="5" t="s">
-        <v>702</v>
-      </c>
+      <c r="M126" s="5"/>
       <c r="N126" s="5"/>
       <c r="O126" s="5"/>
       <c r="P126" s="7"/>
       <c r="Q126" s="7"/>
       <c r="R126" s="7"/>
-      <c r="S126" s="5"/>
+      <c r="S126" s="5" t="s">
+        <v>700</v>
+      </c>
     </row>
     <row r="127" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>50</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C127" s="4">
         <v>126</v>
@@ -8208,7 +8207,7 @@
         <v>518</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="I127" s="5" t="s">
         <v>537</v>
@@ -8222,22 +8221,22 @@
       <c r="L127" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M127" s="5" t="s">
-        <v>704</v>
-      </c>
+      <c r="M127" s="5"/>
       <c r="N127" s="5"/>
       <c r="O127" s="5"/>
       <c r="P127" s="7"/>
       <c r="Q127" s="7"/>
       <c r="R127" s="7"/>
-      <c r="S127" s="5"/>
+      <c r="S127" s="5" t="s">
+        <v>702</v>
+      </c>
     </row>
     <row r="128" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>50</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C128" s="4">
         <v>127</v>
@@ -8255,36 +8254,36 @@
         <v>522</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="I128" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J128" s="5" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="K128" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L128" s="5" t="s">
-        <v>707</v>
-      </c>
-      <c r="M128" s="5" t="s">
-        <v>708</v>
-      </c>
+        <v>713</v>
+      </c>
+      <c r="M128" s="5"/>
       <c r="N128" s="5"/>
       <c r="O128" s="5"/>
       <c r="P128" s="7"/>
       <c r="Q128" s="7"/>
       <c r="R128" s="7"/>
-      <c r="S128" s="5"/>
+      <c r="S128" s="5" t="s">
+        <v>704</v>
+      </c>
     </row>
     <row r="129" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>50</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C129" s="4">
         <v>128</v>
@@ -8302,7 +8301,7 @@
         <v>526</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="I129" s="5" t="s">
         <v>537</v>
@@ -8329,7 +8328,7 @@
         <v>50</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C130" s="4">
         <v>129</v>
@@ -8347,7 +8346,7 @@
         <v>530</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="I130" s="5" t="s">
         <v>537</v>
@@ -8361,22 +8360,22 @@
       <c r="L130" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M130" s="5" t="s">
-        <v>711</v>
-      </c>
+      <c r="M130" s="5"/>
       <c r="N130" s="5"/>
       <c r="O130" s="5"/>
       <c r="P130" s="7"/>
       <c r="Q130" s="7"/>
       <c r="R130" s="7"/>
-      <c r="S130" s="5"/>
+      <c r="S130" s="5" t="s">
+        <v>707</v>
+      </c>
     </row>
     <row r="131" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>50</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C131" s="4">
         <v>130</v>
@@ -8394,7 +8393,7 @@
         <v>534</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="I131" s="5" t="s">
         <v>537</v>

--- a/sources/Turkish_data.xlsx
+++ b/sources/Turkish_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="715">
   <si>
     <t>language_no</t>
   </si>
@@ -1638,9 +1638,6 @@
     <t>NOM</t>
   </si>
   <si>
-    <t>GENNOM</t>
-  </si>
-  <si>
     <t>var</t>
   </si>
   <si>
@@ -1650,9 +1647,6 @@
     <t>ABL</t>
   </si>
   <si>
-    <t>NOMABL</t>
-  </si>
-  <si>
     <t>at-</t>
   </si>
   <si>
@@ -1665,15 +1659,9 @@
     <t>DAT</t>
   </si>
   <si>
-    <t>DATNOM</t>
-  </si>
-  <si>
     <t>benze-</t>
   </si>
   <si>
-    <t>NOMDAT</t>
-  </si>
-  <si>
     <t>inan-</t>
   </si>
   <si>
@@ -1734,9 +1722,6 @@
     <t>COM</t>
   </si>
   <si>
-    <t>NOMCOM</t>
-  </si>
-  <si>
     <t>RECP</t>
   </si>
   <si>
@@ -1878,9 +1863,6 @@
     <t>XY</t>
   </si>
   <si>
-    <t>GENDAT</t>
-  </si>
-  <si>
     <t>NV. Букв.: "У Х-а деньги-DAT потребность-Pх есть"</t>
   </si>
   <si>
@@ -2055,9 +2037,6 @@
     <t>LOC</t>
   </si>
   <si>
-    <t>NOMLOC</t>
-  </si>
-  <si>
     <t>öldür-</t>
   </si>
   <si>
@@ -2160,10 +2139,34 @@
     <t>GENuzunden</t>
   </si>
   <si>
-    <t>NOMGENpesinden</t>
-  </si>
-  <si>
-    <t>NOMGENuzunden</t>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>DAT_NOM</t>
+  </si>
+  <si>
+    <t>GEN_NOM</t>
+  </si>
+  <si>
+    <t>GEN_DAT</t>
+  </si>
+  <si>
+    <t>NOM_ABL</t>
+  </si>
+  <si>
+    <t>NOM_DAT</t>
+  </si>
+  <si>
+    <t>NOM_COM</t>
+  </si>
+  <si>
+    <t>NOM_GENpesinden</t>
+  </si>
+  <si>
+    <t>NOM_LOC</t>
+  </si>
+  <si>
+    <t>NOM_GENuzunden</t>
   </si>
 </sst>
 </file>
@@ -2539,9 +2542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2630,7 +2631,7 @@
         <v>50</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -2660,7 +2661,7 @@
         <v>8</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>538</v>
+        <v>707</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
@@ -2675,7 +2676,7 @@
         <v>50</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -2693,7 +2694,7 @@
         <v>26</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>536</v>
@@ -2705,7 +2706,7 @@
         <v>8</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>538</v>
+        <v>707</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -2720,7 +2721,7 @@
         <v>50</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
@@ -2738,19 +2739,19 @@
         <v>30</v>
       </c>
       <c r="H4" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>540</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>541</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>542</v>
+        <v>709</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -2765,7 +2766,7 @@
         <v>50</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C5" s="4">
         <v>4</v>
@@ -2783,17 +2784,19 @@
         <v>34</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J5" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K5" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -2808,7 +2811,7 @@
         <v>50</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -2826,10 +2829,10 @@
         <v>38</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>537</v>
@@ -2838,7 +2841,7 @@
         <v>8</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>547</v>
+        <v>706</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -2853,7 +2856,7 @@
         <v>50</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
@@ -2871,19 +2874,19 @@
         <v>42</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>549</v>
+        <v>710</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -2898,7 +2901,7 @@
         <v>50</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C8" s="4">
         <v>7</v>
@@ -2916,19 +2919,19 @@
         <v>46</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>549</v>
+        <v>710</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
@@ -2943,7 +2946,7 @@
         <v>50</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C9" s="4">
         <v>8</v>
@@ -2961,17 +2964,19 @@
         <v>50</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J9" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K9" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
@@ -2986,7 +2991,7 @@
         <v>50</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C10" s="4">
         <v>9</v>
@@ -3004,17 +3009,19 @@
         <v>54</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J10" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K10" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -3029,7 +3036,7 @@
         <v>50</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C11" s="4">
         <v>10</v>
@@ -3047,17 +3054,19 @@
         <v>58</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J11" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K11" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
@@ -3072,7 +3081,7 @@
         <v>50</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C12" s="4">
         <v>11</v>
@@ -3090,19 +3099,19 @@
         <v>62</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>549</v>
+        <v>710</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
@@ -3117,7 +3126,7 @@
         <v>50</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C13" s="4">
         <v>12</v>
@@ -3135,19 +3144,19 @@
         <v>66</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>549</v>
+        <v>710</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -3162,7 +3171,7 @@
         <v>50</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C14" s="4">
         <v>13</v>
@@ -3180,17 +3189,19 @@
         <v>70</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J14" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K14" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
@@ -3205,7 +3216,7 @@
         <v>50</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C15" s="4">
         <v>14</v>
@@ -3223,19 +3234,19 @@
         <v>74</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>542</v>
+        <v>709</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
@@ -3250,7 +3261,7 @@
         <v>50</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C16" s="4">
         <v>15</v>
@@ -3268,17 +3279,19 @@
         <v>78</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J16" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K16" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
@@ -3293,7 +3306,7 @@
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C17" s="4">
         <v>16</v>
@@ -3311,17 +3324,19 @@
         <v>82</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J17" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K17" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
@@ -3336,7 +3351,7 @@
         <v>50</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C18" s="4">
         <v>17</v>
@@ -3354,19 +3369,19 @@
         <v>86</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>549</v>
+        <v>710</v>
       </c>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
@@ -3375,7 +3390,7 @@
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
       <c r="S18" s="5" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3383,7 +3398,7 @@
         <v>50</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C19" s="4">
         <v>18</v>
@@ -3401,17 +3416,19 @@
         <v>90</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J19" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K19" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
@@ -3426,7 +3443,7 @@
         <v>50</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C20" s="4">
         <v>19</v>
@@ -3444,19 +3461,19 @@
         <v>94</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>549</v>
+        <v>710</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
@@ -3471,7 +3488,7 @@
         <v>50</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C21" s="4">
         <v>20</v>
@@ -3489,17 +3506,19 @@
         <v>98</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J21" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K21" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
@@ -3514,7 +3533,7 @@
         <v>50</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C22" s="4">
         <v>21</v>
@@ -3532,19 +3551,19 @@
         <v>102</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>549</v>
+        <v>710</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
@@ -3553,7 +3572,7 @@
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
       <c r="S22" s="5" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3561,7 +3580,7 @@
         <v>50</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C23" s="4">
         <v>22</v>
@@ -3579,19 +3598,19 @@
         <v>106</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>549</v>
+        <v>710</v>
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
@@ -3606,7 +3625,7 @@
         <v>50</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C24" s="4">
         <v>23</v>
@@ -3624,19 +3643,19 @@
         <v>110</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>570</v>
+        <v>711</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
@@ -3645,7 +3664,7 @@
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
       <c r="S24" s="5" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3653,7 +3672,7 @@
         <v>50</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C25" s="4">
         <v>24</v>
@@ -3671,19 +3690,19 @@
         <v>114</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>570</v>
+        <v>711</v>
       </c>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
@@ -3692,7 +3711,7 @@
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
       <c r="S25" s="5" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3700,7 +3719,7 @@
         <v>50</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C26" s="4">
         <v>25</v>
@@ -3718,17 +3737,19 @@
         <v>118</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J26" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K26" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
@@ -3743,7 +3764,7 @@
         <v>50</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C27" s="4">
         <v>26</v>
@@ -3761,17 +3782,19 @@
         <v>122</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J27" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K27" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
@@ -3786,7 +3809,7 @@
         <v>50</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C28" s="4">
         <v>27</v>
@@ -3804,17 +3827,19 @@
         <v>126</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J28" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K28" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
@@ -3823,7 +3848,7 @@
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
       <c r="S28" s="5" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3831,7 +3856,7 @@
         <v>50</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C29" s="4">
         <v>28</v>
@@ -3849,17 +3874,19 @@
         <v>130</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J29" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K29" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
@@ -3874,7 +3901,7 @@
         <v>50</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C30" s="4">
         <v>29</v>
@@ -3892,17 +3919,19 @@
         <v>134</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J30" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K30" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
@@ -3917,7 +3946,7 @@
         <v>50</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C31" s="4">
         <v>30</v>
@@ -3935,19 +3964,19 @@
         <v>138</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>549</v>
+        <v>710</v>
       </c>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
@@ -3956,7 +3985,7 @@
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
       <c r="S31" s="5" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3964,7 +3993,7 @@
         <v>50</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C32" s="4">
         <v>31</v>
@@ -3982,17 +4011,19 @@
         <v>142</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J32" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K32" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
@@ -4007,7 +4038,7 @@
         <v>50</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C33" s="4">
         <v>32</v>
@@ -4025,19 +4056,19 @@
         <v>146</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>570</v>
+        <v>711</v>
       </c>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
@@ -4046,7 +4077,7 @@
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
       <c r="S33" s="5" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4054,7 +4085,7 @@
         <v>50</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C34" s="4">
         <v>33</v>
@@ -4072,17 +4103,19 @@
         <v>150</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J34" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K34" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
@@ -4097,7 +4130,7 @@
         <v>50</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C35" s="4">
         <v>34</v>
@@ -4115,17 +4148,19 @@
         <v>154</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J35" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K35" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
@@ -4140,7 +4175,7 @@
         <v>50</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C36" s="4">
         <v>35</v>
@@ -4158,19 +4193,19 @@
         <v>158</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>542</v>
+        <v>709</v>
       </c>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
@@ -4185,7 +4220,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C37" s="4">
         <v>36</v>
@@ -4203,17 +4238,19 @@
         <v>162</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J37" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K37" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
@@ -4228,7 +4265,7 @@
         <v>50</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C38" s="4">
         <v>37</v>
@@ -4246,19 +4283,19 @@
         <v>166</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>570</v>
+        <v>711</v>
       </c>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
@@ -4267,7 +4304,7 @@
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
       <c r="S38" s="5" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4275,7 +4312,7 @@
         <v>50</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C39" s="4">
         <v>38</v>
@@ -4293,7 +4330,7 @@
         <v>169</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>536</v>
@@ -4305,7 +4342,7 @@
         <v>8</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>538</v>
+        <v>707</v>
       </c>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
@@ -4320,7 +4357,7 @@
         <v>50</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C40" s="4">
         <v>39</v>
@@ -4338,17 +4375,19 @@
         <v>173</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J40" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K40" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
@@ -4363,7 +4402,7 @@
         <v>50</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C41" s="4">
         <v>40</v>
@@ -4381,17 +4420,19 @@
         <v>177</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J41" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K41" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
@@ -4406,7 +4447,7 @@
         <v>50</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C42" s="4">
         <v>41</v>
@@ -4424,17 +4465,19 @@
         <v>181</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J42" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K42" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
@@ -4449,7 +4492,7 @@
         <v>50</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C43" s="4">
         <v>42</v>
@@ -4467,17 +4510,19 @@
         <v>185</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J43" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K43" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
@@ -4486,7 +4531,7 @@
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
       <c r="S43" s="5" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4494,7 +4539,7 @@
         <v>50</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C44" s="4">
         <v>43</v>
@@ -4512,17 +4557,19 @@
         <v>189</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J44" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K44" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
@@ -4537,7 +4584,7 @@
         <v>50</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C45" s="4">
         <v>44</v>
@@ -4555,17 +4602,19 @@
         <v>193</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J45" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K45" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
@@ -4580,7 +4629,7 @@
         <v>50</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C46" s="4">
         <v>45</v>
@@ -4598,17 +4647,19 @@
         <v>197</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J46" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K46" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
@@ -4617,7 +4668,7 @@
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
       <c r="S46" s="5" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4625,7 +4676,7 @@
         <v>50</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C47" s="4">
         <v>46</v>
@@ -4643,17 +4694,19 @@
         <v>201</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J47" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K47" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
@@ -4668,7 +4721,7 @@
         <v>50</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C48" s="4">
         <v>47</v>
@@ -4686,17 +4739,19 @@
         <v>205</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J48" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K48" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
@@ -4711,7 +4766,7 @@
         <v>50</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C49" s="4">
         <v>48</v>
@@ -4729,14 +4784,16 @@
         <v>209</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>601</v>
-      </c>
-      <c r="J49" s="5"/>
+        <v>596</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>596</v>
+      </c>
       <c r="K49" s="5" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
@@ -4746,7 +4803,7 @@
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
       <c r="S49" s="5" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4754,7 +4811,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C50" s="4">
         <v>49</v>
@@ -4772,17 +4829,19 @@
         <v>213</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J50" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K50" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
@@ -4797,7 +4856,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C51" s="4">
         <v>50</v>
@@ -4815,17 +4874,19 @@
         <v>217</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J51" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K51" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
@@ -4840,7 +4901,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C52" s="4">
         <v>51</v>
@@ -4858,14 +4919,16 @@
         <v>221</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>601</v>
-      </c>
-      <c r="J52" s="5"/>
+        <v>596</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>596</v>
+      </c>
       <c r="K52" s="5" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
@@ -4875,7 +4938,7 @@
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
       <c r="S52" s="5" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4883,7 +4946,7 @@
         <v>50</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C53" s="4">
         <v>52</v>
@@ -4901,17 +4964,19 @@
         <v>225</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J53" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K53" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
@@ -4926,7 +4991,7 @@
         <v>50</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C54" s="4">
         <v>53</v>
@@ -4944,19 +5009,19 @@
         <v>229</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="I54" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K54" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>549</v>
+        <v>710</v>
       </c>
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
@@ -4971,7 +5036,7 @@
         <v>50</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C55" s="4">
         <v>54</v>
@@ -4989,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="K55" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>570</v>
+        <v>711</v>
       </c>
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
@@ -5016,7 +5081,7 @@
         <v>50</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C56" s="4">
         <v>55</v>
@@ -5034,17 +5099,19 @@
         <v>237</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J56" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K56" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
@@ -5059,7 +5126,7 @@
         <v>50</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C57" s="4">
         <v>56</v>
@@ -5077,7 +5144,7 @@
         <v>241</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="I57" s="5" t="s">
         <v>536</v>
@@ -5089,7 +5156,7 @@
         <v>8</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>538</v>
+        <v>707</v>
       </c>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
@@ -5098,7 +5165,7 @@
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
       <c r="S57" s="5" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="58" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5106,7 +5173,7 @@
         <v>50</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C58" s="4">
         <v>57</v>
@@ -5124,19 +5191,19 @@
         <v>245</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="I58" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K58" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>542</v>
+        <v>709</v>
       </c>
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
@@ -5145,7 +5212,7 @@
       <c r="Q58" s="7"/>
       <c r="R58" s="7"/>
       <c r="S58" s="5" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="59" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5153,7 +5220,7 @@
         <v>50</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C59" s="4">
         <v>58</v>
@@ -5171,17 +5238,19 @@
         <v>249</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J59" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K59" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
@@ -5190,7 +5259,7 @@
       <c r="Q59" s="7"/>
       <c r="R59" s="7"/>
       <c r="S59" s="5" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="60" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5198,7 +5267,7 @@
         <v>50</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C60" s="4">
         <v>59</v>
@@ -5216,19 +5285,19 @@
         <v>253</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="I60" s="5" t="s">
         <v>536</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>618</v>
+        <v>708</v>
       </c>
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
@@ -5237,7 +5306,7 @@
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
       <c r="S60" s="5" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
     </row>
     <row r="61" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5245,7 +5314,7 @@
         <v>50</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C61" s="4">
         <v>60</v>
@@ -5263,17 +5332,19 @@
         <v>257</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J61" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K61" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L61" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
@@ -5288,7 +5359,7 @@
         <v>50</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C62" s="6">
         <v>61</v>
@@ -5306,7 +5377,7 @@
         <v>261</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="I62" s="5" t="s">
         <v>536</v>
@@ -5318,7 +5389,7 @@
         <v>8</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>538</v>
+        <v>707</v>
       </c>
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
@@ -5333,7 +5404,7 @@
         <v>50</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C63" s="4">
         <v>62</v>
@@ -5351,19 +5422,19 @@
         <v>265</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="I63" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K63" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>549</v>
+        <v>710</v>
       </c>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
@@ -5372,7 +5443,7 @@
       <c r="Q63" s="7"/>
       <c r="R63" s="7"/>
       <c r="S63" s="5" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
     </row>
     <row r="64" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5380,7 +5451,7 @@
         <v>50</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C64" s="4">
         <v>63</v>
@@ -5398,17 +5469,19 @@
         <v>269</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J64" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K64" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
@@ -5423,7 +5496,7 @@
         <v>50</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C65" s="4">
         <v>64</v>
@@ -5441,19 +5514,19 @@
         <v>273</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="I65" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K65" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>542</v>
+        <v>709</v>
       </c>
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
@@ -5462,7 +5535,7 @@
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
       <c r="S65" s="5" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
     </row>
     <row r="66" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5470,7 +5543,7 @@
         <v>50</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C66" s="4">
         <v>65</v>
@@ -5488,19 +5561,19 @@
         <v>277</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="I66" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K66" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>542</v>
+        <v>709</v>
       </c>
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
@@ -5509,7 +5582,7 @@
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
       <c r="S66" s="5" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
     </row>
     <row r="67" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5517,7 +5590,7 @@
         <v>50</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C67" s="4">
         <v>66</v>
@@ -5535,17 +5608,19 @@
         <v>281</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J67" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K67" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
@@ -5560,7 +5635,7 @@
         <v>50</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C68" s="4">
         <v>67</v>
@@ -5578,19 +5653,19 @@
         <v>285</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="I68" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K68" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L68" s="5" t="s">
-        <v>542</v>
+        <v>709</v>
       </c>
       <c r="M68" s="5"/>
       <c r="N68" s="5"/>
@@ -5599,7 +5674,7 @@
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
       <c r="S68" s="5" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
     </row>
     <row r="69" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5607,7 +5682,7 @@
         <v>50</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C69" s="4">
         <v>68</v>
@@ -5625,14 +5700,16 @@
         <v>289</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>601</v>
-      </c>
-      <c r="J69" s="5"/>
+        <v>596</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>596</v>
+      </c>
       <c r="K69" s="5" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="L69" s="5"/>
       <c r="M69" s="5"/>
@@ -5642,7 +5719,7 @@
       <c r="Q69" s="7"/>
       <c r="R69" s="7"/>
       <c r="S69" s="5" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
     </row>
     <row r="70" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5650,7 +5727,7 @@
         <v>50</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C70" s="4">
         <v>69</v>
@@ -5668,17 +5745,19 @@
         <v>293</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J70" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K70" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L70" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
@@ -5693,7 +5772,7 @@
         <v>50</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C71" s="4">
         <v>70</v>
@@ -5711,17 +5790,19 @@
         <v>297</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J71" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K71" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L71" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
@@ -5736,7 +5817,7 @@
         <v>50</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C72" s="4">
         <v>71</v>
@@ -5754,17 +5835,19 @@
         <v>301</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J72" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K72" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L72" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
@@ -5779,7 +5862,7 @@
         <v>50</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C73" s="4">
         <v>72</v>
@@ -5797,17 +5880,19 @@
         <v>305</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J73" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K73" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L73" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
@@ -5822,7 +5907,7 @@
         <v>50</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C74" s="4">
         <v>73</v>
@@ -5840,19 +5925,19 @@
         <v>309</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="I74" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K74" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>549</v>
+        <v>710</v>
       </c>
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
@@ -5867,7 +5952,7 @@
         <v>50</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C75" s="4">
         <v>74</v>
@@ -5885,19 +5970,19 @@
         <v>313</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="I75" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K75" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L75" s="5" t="s">
-        <v>542</v>
+        <v>709</v>
       </c>
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
@@ -5912,7 +5997,7 @@
         <v>50</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C76" s="4">
         <v>75</v>
@@ -5930,17 +6015,19 @@
         <v>317</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J76" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K76" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L76" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M76" s="5"/>
       <c r="N76" s="5"/>
@@ -5955,7 +6042,7 @@
         <v>50</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C77" s="4">
         <v>76</v>
@@ -5973,17 +6060,19 @@
         <v>321</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J77" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K77" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L77" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M77" s="5"/>
       <c r="N77" s="5"/>
@@ -5998,7 +6087,7 @@
         <v>50</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C78" s="4">
         <v>77</v>
@@ -6016,19 +6105,19 @@
         <v>325</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="I78" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K78" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>549</v>
+        <v>710</v>
       </c>
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
@@ -6037,7 +6126,7 @@
       <c r="Q78" s="7"/>
       <c r="R78" s="7"/>
       <c r="S78" s="5" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
     </row>
     <row r="79" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6045,7 +6134,7 @@
         <v>50</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C79" s="4">
         <v>78</v>
@@ -6063,17 +6152,19 @@
         <v>329</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J79" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K79" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L79" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
@@ -6088,7 +6179,7 @@
         <v>50</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C80" s="4">
         <v>79</v>
@@ -6106,19 +6197,19 @@
         <v>333</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="I80" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K80" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L80" s="5" t="s">
-        <v>549</v>
+        <v>710</v>
       </c>
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
@@ -6133,7 +6224,7 @@
         <v>50</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C81" s="4">
         <v>80</v>
@@ -6151,14 +6242,16 @@
         <v>337</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>601</v>
-      </c>
-      <c r="J81" s="5"/>
+        <v>596</v>
+      </c>
+      <c r="J81" s="5" t="s">
+        <v>596</v>
+      </c>
       <c r="K81" s="5" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="L81" s="5"/>
       <c r="M81" s="5"/>
@@ -6168,7 +6261,7 @@
       <c r="Q81" s="7"/>
       <c r="R81" s="7"/>
       <c r="S81" s="5" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
     </row>
     <row r="82" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6176,7 +6269,7 @@
         <v>50</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C82" s="4">
         <v>81</v>
@@ -6194,19 +6287,19 @@
         <v>341</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="I82" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K82" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>549</v>
+        <v>710</v>
       </c>
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
@@ -6221,7 +6314,7 @@
         <v>50</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C83" s="4">
         <v>82</v>
@@ -6239,19 +6332,19 @@
         <v>345</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="I83" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K83" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L83" s="5" t="s">
-        <v>549</v>
+        <v>710</v>
       </c>
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
@@ -6266,7 +6359,7 @@
         <v>50</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C84" s="4">
         <v>83</v>
@@ -6284,19 +6377,19 @@
         <v>349</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="I84" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K84" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L84" s="5" t="s">
-        <v>549</v>
+        <v>710</v>
       </c>
       <c r="M84" s="5"/>
       <c r="N84" s="5"/>
@@ -6305,7 +6398,7 @@
       <c r="Q84" s="7"/>
       <c r="R84" s="7"/>
       <c r="S84" s="5" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
     </row>
     <row r="85" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6313,7 +6406,7 @@
         <v>50</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C85" s="4">
         <v>84</v>
@@ -6331,19 +6424,19 @@
         <v>353</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="I85" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="K85" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L85" s="5" t="s">
-        <v>570</v>
+        <v>711</v>
       </c>
       <c r="M85" s="5"/>
       <c r="N85" s="5"/>
@@ -6352,7 +6445,7 @@
       <c r="Q85" s="7"/>
       <c r="R85" s="7"/>
       <c r="S85" s="5" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="86" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6360,7 +6453,7 @@
         <v>50</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C86" s="4">
         <v>85</v>
@@ -6378,17 +6471,19 @@
         <v>357</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J86" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K86" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L86" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M86" s="5"/>
       <c r="N86" s="5"/>
@@ -6403,7 +6498,7 @@
         <v>50</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C87" s="4">
         <v>86</v>
@@ -6421,17 +6516,19 @@
         <v>361</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J87" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K87" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L87" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M87" s="5"/>
       <c r="N87" s="5"/>
@@ -6446,7 +6543,7 @@
         <v>50</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C88" s="4">
         <v>87</v>
@@ -6464,17 +6561,19 @@
         <v>365</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J88" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K88" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L88" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M88" s="5"/>
       <c r="N88" s="5"/>
@@ -6489,7 +6588,7 @@
         <v>50</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C89" s="4">
         <v>88</v>
@@ -6507,17 +6606,19 @@
         <v>369</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J89" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J89" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K89" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L89" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M89" s="5"/>
       <c r="N89" s="5"/>
@@ -6532,7 +6633,7 @@
         <v>50</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C90" s="4">
         <v>89</v>
@@ -6550,13 +6651,13 @@
         <v>373</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="I90" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J90" s="5" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="K90" s="5" t="s">
         <v>9</v>
@@ -6577,7 +6678,7 @@
         <v>50</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C91" s="4">
         <v>90</v>
@@ -6595,19 +6696,19 @@
         <v>377</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I91" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K91" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L91" s="5" t="s">
-        <v>542</v>
+        <v>709</v>
       </c>
       <c r="M91" s="5"/>
       <c r="N91" s="5"/>
@@ -6622,7 +6723,7 @@
         <v>50</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C92" s="4">
         <v>91</v>
@@ -6640,17 +6741,19 @@
         <v>381</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J92" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K92" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L92" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M92" s="5"/>
       <c r="N92" s="5"/>
@@ -6665,7 +6768,7 @@
         <v>50</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C93" s="4">
         <v>92</v>
@@ -6683,14 +6786,16 @@
         <v>385</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>601</v>
-      </c>
-      <c r="J93" s="5"/>
+        <v>596</v>
+      </c>
+      <c r="J93" s="5" t="s">
+        <v>596</v>
+      </c>
       <c r="K93" s="5" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="L93" s="5"/>
       <c r="M93" s="5"/>
@@ -6700,7 +6805,7 @@
       <c r="Q93" s="7"/>
       <c r="R93" s="7"/>
       <c r="S93" s="5" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
     </row>
     <row r="94" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6708,7 +6813,7 @@
         <v>50</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C94" s="4">
         <v>93</v>
@@ -6726,17 +6831,19 @@
         <v>389</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J94" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K94" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L94" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M94" s="5"/>
       <c r="N94" s="5"/>
@@ -6751,7 +6858,7 @@
         <v>50</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C95" s="4">
         <v>94</v>
@@ -6769,19 +6876,19 @@
         <v>393</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="I95" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J95" s="5" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="K95" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L95" s="5" t="s">
-        <v>570</v>
+        <v>711</v>
       </c>
       <c r="M95" s="5"/>
       <c r="N95" s="5"/>
@@ -6790,7 +6897,7 @@
       <c r="Q95" s="7"/>
       <c r="R95" s="7"/>
       <c r="S95" s="5" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
     </row>
     <row r="96" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6798,7 +6905,7 @@
         <v>50</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C96" s="4">
         <v>95</v>
@@ -6816,19 +6923,19 @@
         <v>397</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="I96" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K96" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L96" s="5" t="s">
-        <v>549</v>
+        <v>710</v>
       </c>
       <c r="M96" s="5"/>
       <c r="N96" s="5"/>
@@ -6843,7 +6950,7 @@
         <v>50</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C97" s="4">
         <v>96</v>
@@ -6861,17 +6968,19 @@
         <v>401</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J97" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K97" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L97" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M97" s="5"/>
       <c r="N97" s="5"/>
@@ -6886,7 +6995,7 @@
         <v>50</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C98" s="4">
         <v>97</v>
@@ -6904,17 +7013,19 @@
         <v>405</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J98" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K98" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L98" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M98" s="5"/>
       <c r="N98" s="5"/>
@@ -6923,7 +7034,7 @@
       <c r="Q98" s="7"/>
       <c r="R98" s="7"/>
       <c r="S98" s="5" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
     </row>
     <row r="99" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6931,7 +7042,7 @@
         <v>50</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C99" s="4">
         <v>98</v>
@@ -6949,19 +7060,19 @@
         <v>409</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="I99" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K99" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L99" s="5" t="s">
-        <v>549</v>
+        <v>710</v>
       </c>
       <c r="M99" s="5"/>
       <c r="N99" s="5"/>
@@ -6970,7 +7081,7 @@
       <c r="Q99" s="7"/>
       <c r="R99" s="7"/>
       <c r="S99" s="5" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
     </row>
     <row r="100" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6978,7 +7089,7 @@
         <v>50</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C100" s="4">
         <v>99</v>
@@ -6996,19 +7107,19 @@
         <v>413</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="I100" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="K100" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L100" s="5" t="s">
-        <v>570</v>
+        <v>711</v>
       </c>
       <c r="M100" s="5"/>
       <c r="N100" s="5"/>
@@ -7017,7 +7128,7 @@
       <c r="Q100" s="7"/>
       <c r="R100" s="7"/>
       <c r="S100" s="5" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
     </row>
     <row r="101" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7025,7 +7136,7 @@
         <v>50</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C101" s="4">
         <v>100</v>
@@ -7043,17 +7154,19 @@
         <v>417</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J101" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K101" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L101" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M101" s="5"/>
       <c r="N101" s="5"/>
@@ -7062,7 +7175,7 @@
       <c r="Q101" s="7"/>
       <c r="R101" s="7"/>
       <c r="S101" s="5" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
     </row>
     <row r="102" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7070,7 +7183,7 @@
         <v>50</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C102" s="4">
         <v>101</v>
@@ -7088,19 +7201,19 @@
         <v>421</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="I102" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J102" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K102" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L102" s="5" t="s">
-        <v>549</v>
+        <v>710</v>
       </c>
       <c r="M102" s="5"/>
       <c r="N102" s="5"/>
@@ -7109,7 +7222,7 @@
       <c r="Q102" s="7"/>
       <c r="R102" s="7"/>
       <c r="S102" s="5" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
     </row>
     <row r="103" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7117,7 +7230,7 @@
         <v>50</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C103" s="4">
         <v>102</v>
@@ -7135,17 +7248,19 @@
         <v>425</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J103" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K103" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L103" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M103" s="5"/>
       <c r="N103" s="5"/>
@@ -7160,7 +7275,7 @@
         <v>50</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C104" s="4">
         <v>103</v>
@@ -7178,17 +7293,19 @@
         <v>428</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J104" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K104" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L104" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M104" s="5"/>
       <c r="N104" s="5"/>
@@ -7203,7 +7320,7 @@
         <v>50</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C105" s="4">
         <v>104</v>
@@ -7221,19 +7338,19 @@
         <v>432</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="I105" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="K105" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L105" s="5" t="s">
-        <v>677</v>
+        <v>713</v>
       </c>
       <c r="M105" s="5"/>
       <c r="N105" s="5"/>
@@ -7248,7 +7365,7 @@
         <v>50</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C106" s="4">
         <v>105</v>
@@ -7266,17 +7383,19 @@
         <v>436</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J106" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K106" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L106" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M106" s="5"/>
       <c r="N106" s="5"/>
@@ -7285,7 +7404,7 @@
       <c r="Q106" s="7"/>
       <c r="R106" s="7"/>
       <c r="S106" s="5" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="107" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7293,7 +7412,7 @@
         <v>50</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C107" s="4">
         <v>106</v>
@@ -7311,19 +7430,19 @@
         <v>439</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="I107" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J107" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K107" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L107" s="5" t="s">
-        <v>549</v>
+        <v>710</v>
       </c>
       <c r="M107" s="5"/>
       <c r="N107" s="5"/>
@@ -7338,7 +7457,7 @@
         <v>50</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C108" s="4">
         <v>107</v>
@@ -7356,17 +7475,19 @@
         <v>443</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J108" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J108" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K108" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L108" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M108" s="5"/>
       <c r="N108" s="5"/>
@@ -7381,7 +7502,7 @@
         <v>50</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C109" s="4">
         <v>108</v>
@@ -7399,17 +7520,19 @@
         <v>447</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J109" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K109" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L109" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M109" s="5"/>
       <c r="N109" s="5"/>
@@ -7424,7 +7547,7 @@
         <v>50</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C110" s="4">
         <v>109</v>
@@ -7442,17 +7565,19 @@
         <v>451</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J110" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J110" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K110" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L110" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M110" s="5"/>
       <c r="N110" s="5"/>
@@ -7467,7 +7592,7 @@
         <v>50</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C111" s="4">
         <v>110</v>
@@ -7485,19 +7610,19 @@
         <v>455</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="I111" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J111" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K111" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L111" s="5" t="s">
-        <v>549</v>
+        <v>710</v>
       </c>
       <c r="M111" s="5"/>
       <c r="N111" s="5"/>
@@ -7506,7 +7631,7 @@
       <c r="Q111" s="7"/>
       <c r="R111" s="7"/>
       <c r="S111" s="5" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
     </row>
     <row r="112" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7514,7 +7639,7 @@
         <v>50</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C112" s="4">
         <v>111</v>
@@ -7532,19 +7657,19 @@
         <v>459</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="I112" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J112" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K112" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L112" s="5" t="s">
-        <v>542</v>
+        <v>709</v>
       </c>
       <c r="M112" s="5"/>
       <c r="N112" s="5"/>
@@ -7559,7 +7684,7 @@
         <v>50</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C113" s="4">
         <v>112</v>
@@ -7577,19 +7702,19 @@
         <v>463</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="I113" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J113" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K113" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L113" s="5" t="s">
-        <v>542</v>
+        <v>709</v>
       </c>
       <c r="M113" s="5"/>
       <c r="N113" s="5"/>
@@ -7598,7 +7723,7 @@
       <c r="Q113" s="7"/>
       <c r="R113" s="7"/>
       <c r="S113" s="5" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="114" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7606,7 +7731,7 @@
         <v>50</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C114" s="4">
         <v>113</v>
@@ -7624,19 +7749,19 @@
         <v>467</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="I114" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J114" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K114" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L114" s="5" t="s">
-        <v>549</v>
+        <v>710</v>
       </c>
       <c r="M114" s="5"/>
       <c r="N114" s="5"/>
@@ -7645,7 +7770,7 @@
       <c r="Q114" s="7"/>
       <c r="R114" s="7"/>
       <c r="S114" s="5" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
     </row>
     <row r="115" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7653,7 +7778,7 @@
         <v>50</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C115" s="4">
         <v>114</v>
@@ -7671,19 +7796,19 @@
         <v>471</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="I115" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J115" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K115" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L115" s="5" t="s">
-        <v>549</v>
+        <v>710</v>
       </c>
       <c r="M115" s="5"/>
       <c r="N115" s="5"/>
@@ -7698,7 +7823,7 @@
         <v>50</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C116" s="4">
         <v>115</v>
@@ -7716,19 +7841,19 @@
         <v>475</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="I116" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J116" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K116" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L116" s="5" t="s">
-        <v>549</v>
+        <v>710</v>
       </c>
       <c r="M116" s="5"/>
       <c r="N116" s="5"/>
@@ -7743,7 +7868,7 @@
         <v>50</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C117" s="4">
         <v>116</v>
@@ -7761,17 +7886,19 @@
         <v>479</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J117" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J117" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K117" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L117" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M117" s="5"/>
       <c r="N117" s="5"/>
@@ -7786,7 +7913,7 @@
         <v>50</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C118" s="4">
         <v>117</v>
@@ -7804,19 +7931,19 @@
         <v>483</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="I118" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J118" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K118" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L118" s="5" t="s">
-        <v>549</v>
+        <v>710</v>
       </c>
       <c r="M118" s="5"/>
       <c r="N118" s="5"/>
@@ -7825,7 +7952,7 @@
       <c r="Q118" s="7"/>
       <c r="R118" s="7"/>
       <c r="S118" s="5" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
     </row>
     <row r="119" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7833,7 +7960,7 @@
         <v>50</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C119" s="4">
         <v>118</v>
@@ -7851,19 +7978,19 @@
         <v>487</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="I119" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J119" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K119" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L119" s="5" t="s">
-        <v>549</v>
+        <v>710</v>
       </c>
       <c r="M119" s="5"/>
       <c r="N119" s="5"/>
@@ -7872,7 +7999,7 @@
       <c r="Q119" s="7"/>
       <c r="R119" s="7"/>
       <c r="S119" s="5" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
     </row>
     <row r="120" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7880,7 +8007,7 @@
         <v>50</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C120" s="4">
         <v>119</v>
@@ -7898,17 +8025,19 @@
         <v>490</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J120" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J120" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K120" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L120" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M120" s="5"/>
       <c r="N120" s="5"/>
@@ -7923,7 +8052,7 @@
         <v>50</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C121" s="4">
         <v>120</v>
@@ -7941,14 +8070,16 @@
         <v>494</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>601</v>
-      </c>
-      <c r="J121" s="5"/>
+        <v>596</v>
+      </c>
+      <c r="J121" s="5" t="s">
+        <v>596</v>
+      </c>
       <c r="K121" s="5" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="L121" s="5"/>
       <c r="M121" s="5"/>
@@ -7964,7 +8095,7 @@
         <v>50</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C122" s="4">
         <v>121</v>
@@ -7982,17 +8113,19 @@
         <v>498</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J122" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J122" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K122" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L122" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M122" s="5"/>
       <c r="N122" s="5"/>
@@ -8007,7 +8140,7 @@
         <v>50</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C123" s="4">
         <v>122</v>
@@ -8025,19 +8158,19 @@
         <v>502</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="I123" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J123" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K123" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L123" s="5" t="s">
-        <v>549</v>
+        <v>710</v>
       </c>
       <c r="M123" s="5"/>
       <c r="N123" s="5"/>
@@ -8046,7 +8179,7 @@
       <c r="Q123" s="7"/>
       <c r="R123" s="7"/>
       <c r="S123" s="5" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
     </row>
     <row r="124" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8054,7 +8187,7 @@
         <v>50</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C124" s="4">
         <v>123</v>
@@ -8072,19 +8205,19 @@
         <v>506</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="I124" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J124" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K124" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L124" s="5" t="s">
-        <v>549</v>
+        <v>710</v>
       </c>
       <c r="M124" s="5"/>
       <c r="N124" s="5"/>
@@ -8099,7 +8232,7 @@
         <v>50</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C125" s="4">
         <v>124</v>
@@ -8117,17 +8250,19 @@
         <v>510</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J125" s="5"/>
+        <v>537</v>
+      </c>
+      <c r="J125" s="5" t="s">
+        <v>705</v>
+      </c>
       <c r="K125" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L125" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M125" s="5"/>
       <c r="N125" s="5"/>
@@ -8142,7 +8277,7 @@
         <v>50</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C126" s="4">
         <v>125</v>
@@ -8160,19 +8295,19 @@
         <v>514</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="I126" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J126" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K126" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L126" s="5" t="s">
-        <v>549</v>
+        <v>710</v>
       </c>
       <c r="M126" s="5"/>
       <c r="N126" s="5"/>
@@ -8181,7 +8316,7 @@
       <c r="Q126" s="7"/>
       <c r="R126" s="7"/>
       <c r="S126" s="5" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
     </row>
     <row r="127" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8189,7 +8324,7 @@
         <v>50</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C127" s="4">
         <v>126</v>
@@ -8207,19 +8342,19 @@
         <v>518</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="I127" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J127" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K127" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L127" s="5" t="s">
-        <v>549</v>
+        <v>710</v>
       </c>
       <c r="M127" s="5"/>
       <c r="N127" s="5"/>
@@ -8228,7 +8363,7 @@
       <c r="Q127" s="7"/>
       <c r="R127" s="7"/>
       <c r="S127" s="5" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
     </row>
     <row r="128" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8236,7 +8371,7 @@
         <v>50</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C128" s="4">
         <v>127</v>
@@ -8254,19 +8389,19 @@
         <v>522</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="I128" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J128" s="5" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="K128" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L128" s="5" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M128" s="5"/>
       <c r="N128" s="5"/>
@@ -8275,7 +8410,7 @@
       <c r="Q128" s="7"/>
       <c r="R128" s="7"/>
       <c r="S128" s="5" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
     </row>
     <row r="129" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8283,7 +8418,7 @@
         <v>50</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C129" s="4">
         <v>128</v>
@@ -8301,19 +8436,19 @@
         <v>526</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="I129" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J129" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K129" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L129" s="5" t="s">
-        <v>549</v>
+        <v>710</v>
       </c>
       <c r="M129" s="5"/>
       <c r="N129" s="5"/>
@@ -8328,7 +8463,7 @@
         <v>50</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C130" s="4">
         <v>129</v>
@@ -8346,19 +8481,19 @@
         <v>530</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="I130" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J130" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K130" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L130" s="5" t="s">
-        <v>549</v>
+        <v>710</v>
       </c>
       <c r="M130" s="5"/>
       <c r="N130" s="5"/>
@@ -8367,7 +8502,7 @@
       <c r="Q130" s="7"/>
       <c r="R130" s="7"/>
       <c r="S130" s="5" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
     </row>
     <row r="131" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8375,7 +8510,7 @@
         <v>50</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C131" s="4">
         <v>130</v>
@@ -8393,19 +8528,19 @@
         <v>534</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="I131" s="5" t="s">
         <v>537</v>
       </c>
       <c r="J131" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K131" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L131" s="5" t="s">
-        <v>542</v>
+        <v>709</v>
       </c>
       <c r="M131" s="5"/>
       <c r="N131" s="5"/>
